--- a/data/trans_orig/P36B05_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B05_2023-Habitat-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de pasta en 2023 (Tasa respuesta: 99,85%)</t>
+          <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>46,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>67,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>58,29%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>66,91%</t>
+          <t>67,3%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>29,87%</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>54,26%</t>
+          <t>53,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,09%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>53,56%</t>
+          <t>53,88%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>60,65%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>55,14%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>60,92%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>33,92%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,69%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>50,78%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>56,3%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>47,34%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>54,37%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>38,9%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>13,22%</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>57,81%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>58,14%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>78,52%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>55,49%</t>
+          <t>55,15%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>69,92%</t>
+          <t>68,66%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>36,09%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>11,8%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>50,5%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>56,76%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>51,82%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>56,37%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>34,53%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>55,15%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>53,76%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
+          <t>57,97%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>34,4%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
